--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.68952067396597</v>
+        <v>6.215523666666666</v>
       </c>
       <c r="N2">
-        <v>5.68952067396597</v>
+        <v>18.646571</v>
       </c>
       <c r="O2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="P2">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="Q2">
-        <v>188.5763453712043</v>
+        <v>421.241683363069</v>
       </c>
       <c r="R2">
-        <v>188.5763453712043</v>
+        <v>3791.175150267621</v>
       </c>
       <c r="S2">
-        <v>0.06832704290366008</v>
+        <v>0.1163559880234222</v>
       </c>
       <c r="T2">
-        <v>0.06832704290366008</v>
+        <v>0.1163559880234222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.473217159010719</v>
+        <v>9.484070666666666</v>
       </c>
       <c r="N3">
-        <v>9.473217159010719</v>
+        <v>28.452212</v>
       </c>
       <c r="O3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="P3">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="Q3">
-        <v>313.9850917368701</v>
+        <v>642.7593404858681</v>
       </c>
       <c r="R3">
-        <v>313.9850917368701</v>
+        <v>5784.834064372812</v>
       </c>
       <c r="S3">
-        <v>0.1137665108101663</v>
+        <v>0.1775439161823302</v>
       </c>
       <c r="T3">
-        <v>0.1137665108101663</v>
+        <v>0.1775439161823302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.03680687263595</v>
+        <v>6.093084</v>
       </c>
       <c r="N4">
-        <v>6.03680687263595</v>
+        <v>18.279252</v>
       </c>
       <c r="O4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="P4">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="Q4">
-        <v>200.0869744550761</v>
+        <v>412.9436389724281</v>
       </c>
       <c r="R4">
-        <v>200.0869744550761</v>
+        <v>3716.492750751852</v>
       </c>
       <c r="S4">
-        <v>0.0724976998633846</v>
+        <v>0.1140638901806191</v>
       </c>
       <c r="T4">
-        <v>0.0724976998633846</v>
+        <v>0.1140638901806191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.68952067396597</v>
+        <v>6.215523666666666</v>
       </c>
       <c r="N5">
-        <v>5.68952067396597</v>
+        <v>18.646571</v>
       </c>
       <c r="O5">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="P5">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="Q5">
-        <v>340.4368757334805</v>
+        <v>379.0077553015165</v>
       </c>
       <c r="R5">
-        <v>340.4368757334805</v>
+        <v>3411.069797713649</v>
       </c>
       <c r="S5">
-        <v>0.1233508103492045</v>
+        <v>0.1046900712307658</v>
       </c>
       <c r="T5">
-        <v>0.1233508103492045</v>
+        <v>0.1046900712307658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.473217159010719</v>
+        <v>9.484070666666666</v>
       </c>
       <c r="N6">
-        <v>9.473217159010719</v>
+        <v>28.452212</v>
       </c>
       <c r="O6">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="P6">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="Q6">
-        <v>566.8372851715727</v>
+        <v>578.3159275495142</v>
       </c>
       <c r="R6">
-        <v>566.8372851715727</v>
+        <v>5204.843347945628</v>
       </c>
       <c r="S6">
-        <v>0.2053826816246402</v>
+        <v>0.1597432633030947</v>
       </c>
       <c r="T6">
-        <v>0.2053826816246402</v>
+        <v>0.1597432633030947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.03680687263595</v>
+        <v>6.093084</v>
       </c>
       <c r="N7">
-        <v>6.03680687263595</v>
+        <v>18.279252</v>
       </c>
       <c r="O7">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="P7">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="Q7">
-        <v>361.2170143840974</v>
+        <v>371.541677507932</v>
       </c>
       <c r="R7">
-        <v>361.2170143840974</v>
+        <v>3343.875097571388</v>
       </c>
       <c r="S7">
-        <v>0.1308800973460959</v>
+        <v>0.1026277804066559</v>
       </c>
       <c r="T7">
-        <v>0.1308800973460959</v>
+        <v>0.1026277804066559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H8">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J8">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.68952067396597</v>
+        <v>6.215523666666666</v>
       </c>
       <c r="N8">
-        <v>5.68952067396597</v>
+        <v>18.646571</v>
       </c>
       <c r="O8">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="P8">
-        <v>0.2683793804524327</v>
+        <v>0.2852115546146347</v>
       </c>
       <c r="Q8">
-        <v>211.6891507229238</v>
+        <v>232.2972950392451</v>
       </c>
       <c r="R8">
-        <v>211.6891507229238</v>
+        <v>2090.675655353206</v>
       </c>
       <c r="S8">
-        <v>0.07670152719956812</v>
+        <v>0.06416549536044673</v>
       </c>
       <c r="T8">
-        <v>0.07670152719956812</v>
+        <v>0.06416549536044673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H9">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J9">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.473217159010719</v>
+        <v>9.484070666666666</v>
       </c>
       <c r="N9">
-        <v>9.473217159010719</v>
+        <v>28.452212</v>
       </c>
       <c r="O9">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="P9">
-        <v>0.4468594628120791</v>
+        <v>0.4351952762116512</v>
       </c>
       <c r="Q9">
-        <v>352.46858389688</v>
+        <v>354.4550837514925</v>
       </c>
       <c r="R9">
-        <v>352.46858389688</v>
+        <v>3190.095753763432</v>
       </c>
       <c r="S9">
-        <v>0.1277102703772726</v>
+        <v>0.09790809672622634</v>
       </c>
       <c r="T9">
-        <v>0.1277102703772726</v>
+        <v>0.09790809672622634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.2068514825103</v>
+        <v>37.37372866666667</v>
       </c>
       <c r="H10">
-        <v>37.2068514825103</v>
+        <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="J10">
-        <v>0.2857951571028484</v>
+        <v>0.2249750906731122</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.03680687263595</v>
+        <v>6.093084</v>
       </c>
       <c r="N10">
-        <v>6.03680687263595</v>
+        <v>18.279252</v>
       </c>
       <c r="O10">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="P10">
-        <v>0.2847611567354882</v>
+        <v>0.2795931691737141</v>
       </c>
       <c r="Q10">
-        <v>224.6105767387633</v>
+        <v>227.7212681592081</v>
       </c>
       <c r="R10">
-        <v>224.6105767387633</v>
+        <v>2049.491413432872</v>
       </c>
       <c r="S10">
-        <v>0.08138335952600767</v>
+        <v>0.06290149858643913</v>
       </c>
       <c r="T10">
-        <v>0.08138335952600767</v>
+        <v>0.06290149858643912</v>
       </c>
     </row>
   </sheetData>
